--- a/data/test_done.xlsx
+++ b/data/test_done.xlsx
@@ -22,13 +22,13 @@
     <t>Цена на арматуру</t>
   </si>
   <si>
-    <t>Объём CatBoost</t>
+    <t>Объём_CatBoost</t>
   </si>
   <si>
-    <t>Объём XGBoost</t>
+    <t>Объём_XGBoost</t>
   </si>
   <si>
-    <t>Объём RandomForest</t>
+    <t>Объём_RandomForest</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,393 +415,226 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>44844</v>
+        <v>44809</v>
       </c>
       <c r="B2">
-        <v>45000</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>44851</v>
+        <v>44816</v>
       </c>
       <c r="B3">
-        <v>44000</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>44858</v>
+        <v>44823</v>
       </c>
       <c r="B4">
-        <v>43000</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>44865</v>
+        <v>44830</v>
       </c>
       <c r="B5">
-        <v>42000</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>44872</v>
+        <v>44837</v>
       </c>
       <c r="B6">
-        <v>41500</v>
-      </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>13</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>44879</v>
+        <v>44844</v>
       </c>
       <c r="B7">
-        <v>41000</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>14</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>44886</v>
+        <v>44851</v>
       </c>
       <c r="B8">
-        <v>40000</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>44893</v>
+        <v>44858</v>
       </c>
       <c r="B9">
-        <v>40000</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>44900</v>
+        <v>44865</v>
       </c>
       <c r="B10">
-        <v>40500</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>15</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>44907</v>
+        <v>44872</v>
       </c>
       <c r="B11">
-        <v>41700</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
+        <v>41500</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>44914</v>
+        <v>44879</v>
       </c>
       <c r="B12">
-        <v>41700</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>13</v>
+        <v>41000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>44921</v>
+        <v>44886</v>
       </c>
       <c r="B13">
-        <v>42500</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44928</v>
+        <v>44893</v>
       </c>
       <c r="B14">
-        <v>42700</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44935</v>
+        <v>44900</v>
       </c>
       <c r="B15">
-        <v>42700</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
+        <v>44907</v>
+      </c>
+      <c r="B16">
+        <v>41700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>44914</v>
+      </c>
+      <c r="B17">
+        <v>41700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>44921</v>
+      </c>
+      <c r="B18">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>44928</v>
+      </c>
+      <c r="B19">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>44935</v>
+      </c>
+      <c r="B20">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>44942</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>42700</v>
       </c>
-      <c r="C16">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>44949</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>42800</v>
       </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>44956</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>42800</v>
       </c>
-      <c r="C18">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>44963</v>
       </c>
-      <c r="B19">
+      <c r="B24">
         <v>44500</v>
       </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>44970</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <v>44500</v>
       </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>44977</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <v>46000</v>
       </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>44984</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <v>49200</v>
       </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>44991</v>
       </c>
-      <c r="B23">
+      <c r="B28">
         <v>53700</v>
       </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>44998</v>
       </c>
-      <c r="B24">
+      <c r="B29">
         <v>55500</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
